--- a/files/result_ebel.xlsx
+++ b/files/result_ebel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="196">
   <si>
     <t>Код номенклатуры</t>
   </si>
@@ -28,30 +28,24 @@
     <t>Доступно</t>
   </si>
   <si>
-    <t>Claim</t>
-  </si>
-  <si>
     <t>Шкаф для одежды Прованс ПМ-223.02.00.000 Исп 2  дуб Сонома трюфель/крем (ТД-223.07.22  ТД-223.07.12R  ТД-223.07.12L)</t>
   </si>
   <si>
-    <t>Стул на раме CHICO  бежевый (V-18)/хром (chrome)</t>
-  </si>
-  <si>
-    <t>Стул на раме CHICO  чёрный (V-4)/чёрный (black)</t>
-  </si>
-  <si>
     <t>Зеркало навесное Sherlock 7 БН.38.07.00.000  дуб Сонома</t>
   </si>
   <si>
     <t>Основание матрасное Комфорт БКС  80х195 см  берёза</t>
   </si>
   <si>
-    <t>Стул LENA  белый/хром</t>
-  </si>
-  <si>
     <t>Журнальный стол Flatform Фиеста MD 722.06.11  белый</t>
   </si>
   <si>
+    <t>Письменный стол Тандем-2Я МСТ-СДТ-2Я-БТ-16  белый</t>
+  </si>
+  <si>
+    <t>Кресло рабочее MARVIN FY-0221  чёрный</t>
+  </si>
+  <si>
     <t>Зеркало TIFFANY 100 (II)  вудлайн кремовый</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>Журнальный стол Flatform Фиеста MD 721.07.11  дуб Сонома/белый</t>
   </si>
   <si>
-    <t>Стол Триан-5 МСТ-УСТ-05-ДС-БТ-16  дуб Сонома/белый</t>
-  </si>
-  <si>
     <t>Шкаф для белья правый Sherlock 81 БН.38.81.00.000  орех шоколадный</t>
   </si>
   <si>
@@ -82,30 +73,18 @@
     <t>Основание кроватное 140х200 см  чёрный (КРУ11.100.00.00-01  КМОП.260.9005.07.6С)</t>
   </si>
   <si>
-    <t>Барный стул UFO MLM-620005  белый (60-4)/хром</t>
-  </si>
-  <si>
-    <t>Барный стул ALTON MLM-620026  белый (60-4)/хром</t>
-  </si>
-  <si>
-    <t>Барный стул BOSTON MLM-620043  чёрный (60-1)/хром</t>
+    <t>Стул поворотный FOX GTS  красный (C 2  OH 6)</t>
   </si>
   <si>
     <t>Панель с крючками Даллас КМ+02.63.000.004  венге Цаво</t>
   </si>
   <si>
-    <t>Барный стул PICADILLY MLM-620012  красный (003)/хром</t>
+    <t>Тумба прикроватная с двумя ящиками Коста 2  серый (Talisman 13)</t>
   </si>
   <si>
     <t>Кровать Абель  160х200 см  серо-бежевый (Kiton 05)</t>
   </si>
   <si>
-    <t>Барный стул FLEX MLM-620058  белый (5)/дуб (12)/хром</t>
-  </si>
-  <si>
-    <t>Кресло Патрик ТК 83  тёмно-коричневый (Берген Шоколад)</t>
-  </si>
-  <si>
     <t>Пуф Бертран ТП 71/1  бежевый (Velutto/Supreme 18)</t>
   </si>
   <si>
@@ -115,25 +94,25 @@
     <t>Журнальный стол E II 180402  чёрный</t>
   </si>
   <si>
-    <t>Стол обеденный TOPMAX Antares 80060E-105х70  хром</t>
-  </si>
-  <si>
-    <t>Стул Берн С39М2  бежевый (берген карамель)/грецкий орех</t>
-  </si>
-  <si>
     <t>Матрас для дивана MILDEX Breeze  80х200 см</t>
   </si>
   <si>
+    <t>Матрас для дивана MILDEX Breeze  160х200 см</t>
+  </si>
+  <si>
     <t>Матрас для дивана MILDEX Sunrise  160х200 см</t>
   </si>
   <si>
+    <t>Тумба прикроватная Oxford 005.05.02.04  дуб Сонома</t>
+  </si>
+  <si>
     <t>Обувница КАН-3  дуб крафт</t>
   </si>
   <si>
-    <t>Скамья ADELE MC15S  тёмное дерево/серо-коричневый (XQX-24)</t>
-  </si>
-  <si>
-    <t>Стул BRICK SKY8994  светло-коричневый (G062-12)/коричневый (626)/чёрный</t>
+    <t>Чехол для матраса натяжной MILDEX Super A  160х200 см</t>
+  </si>
+  <si>
+    <t>Матрас MILDEX Pion Max  80х190 см</t>
   </si>
   <si>
     <t>Стол-трансформер №3  дуб Сонома</t>
@@ -163,49 +142,61 @@
     <t>Пуф Грейс  коричневый титан (Torino Stone)/берёза белая</t>
   </si>
   <si>
-    <t>Табурет ТП01 ТП02/Ч  чёрный</t>
-  </si>
-  <si>
     <t>Корпус обувницы Бен-2  дуб Сонома</t>
   </si>
   <si>
-    <t>Вешалка Хьюстон ПМ-293.07.00.000  дуб Сонома светлая</t>
+    <t>Сиденье обувницы Бен-2  серебристый (Kolibri Silver)</t>
+  </si>
+  <si>
+    <t>Письменный стол MONAKO  сосна винтаж/дуб Анкона</t>
   </si>
   <si>
     <t>Панель с зеркалом Хьюстон ПМ-293.11.00.000  дуб Сонома светлая</t>
   </si>
   <si>
+    <t>Ручка-скоба Оскар FS-184 128 Cr (хм) х  хром матовый</t>
+  </si>
+  <si>
     <t>Набор колёс Romack Möbel 1100  2 шт.  чёрный (для Bambini)</t>
   </si>
   <si>
     <t>Журнальный стол Мартин 12.04  ателье светлое/белый глянец</t>
   </si>
   <si>
-    <t>Кресло Людвиг ТК 48/1  бледно-розовый (Velutto/Supreme 11)/коричневый (Поларис Браун)</t>
-  </si>
-  <si>
-    <t>Барный стул DAKAR BS-1907-B  светло-серый (CAIRO-18)/серый (DALLAS-003)/чёрный матовый</t>
-  </si>
-  <si>
     <t>Тумба Интро ИЖ.080.01.00.00.00  40х43х45 см  серый</t>
   </si>
   <si>
     <t>Тумба Интро ИЖ.080.03.00.00.00  50х48х45 см  белый</t>
   </si>
   <si>
+    <t>Стенка для гостиной Юджи  дуб Сонома/белый</t>
+  </si>
+  <si>
     <t>Обувница "КАН" Бетон/белый</t>
   </si>
   <si>
     <t>Приставной стол Rivalli Модерн  дуб Каньон</t>
   </si>
   <si>
+    <t>Вешалка с крючками настенная Арт мини  белый</t>
+  </si>
+  <si>
+    <t>Банкетка Практик-9  коричневый (Kolibri Koriza)/чёрный</t>
+  </si>
+  <si>
     <t>Кровать Garda  140х200 см  светло-бежевый (Velutto 17)</t>
   </si>
   <si>
     <t>Обувница Норта-1 МСТ-ОДН-01-ВМ-16  венге</t>
   </si>
   <si>
-    <t>Зеркало с полкой Норд 60  белый матовый/чёрный муар</t>
+    <t>Обувница Норта-1 МСТ-ОДН-01-ДС-16  дуб Сонома</t>
+  </si>
+  <si>
+    <t>Стол Ренцо-2 МСТ-СРЕ-02-ЕБ-16  бетон/белый</t>
+  </si>
+  <si>
+    <t>Тумба под раковину подвесная Ларго 40.2  швейцарский вяз</t>
   </si>
   <si>
     <t>Комод Virginia НМ 011.01  ясень Анкор тёмный (KR)/белый скандинавский</t>
@@ -214,19 +205,7 @@
     <t>Тумба TIFFANY 2V1D3S  орех элия тёмный</t>
   </si>
   <si>
-    <t>Тумба с вешалкой Уно-11 МСТ-УТВ-11-ЕБ-16  бетон/белый</t>
-  </si>
-  <si>
-    <t>Стул ASPEN TF-20024  жёлтый (011)</t>
-  </si>
-  <si>
-    <t>Стул с подлокотниками KATO UDC8283  жёлтый (VBP211)/чёрный матовый</t>
-  </si>
-  <si>
-    <t>Стул DAVE UDC8285  зелёный (VF115)/чёрный матовый</t>
-  </si>
-  <si>
-    <t>Стул BRAVURA  тёмно-зелёный (BLUVEL 78)/золотой</t>
+    <t>Шкаф-пенал напольный без ящика Sanstar Лайн 134.1-3.5.1.  белый глянец</t>
   </si>
   <si>
     <t>Зеркальный шкаф универсальный с полками Sanstar 60 219.1-2.4.1.  белый глянец</t>
@@ -241,58 +220,34 @@
     <t>Пуф Бертран ТП 97  горчичный (Simple 15)</t>
   </si>
   <si>
-    <t>Стул HANZ  чёрный</t>
+    <t>Журнальный стол Diamond тип 5 КМ+02.68.000.140  дуб Сонома/белый</t>
   </si>
   <si>
     <t>Ящики для белья Оливия НМ 040.39 Х  2 шт.  дуб Сонома/белое дерево (для кровати 160х200 см)</t>
   </si>
   <si>
-    <t>Стол MODERN LITE  дуб Нагано/чёрный (black)</t>
-  </si>
-  <si>
     <t>Стол-трансформер №3  Atelier</t>
   </si>
   <si>
-    <t>Комод 420 с 2 ящиками Лофт  серый крафт</t>
-  </si>
-  <si>
     <t>Смеситель для раковины ORANGE Aristo M19-021b  чёрный</t>
   </si>
   <si>
-    <t>Комплект полок 400 Лофт  2 шт.  дуб Сонома (для шкафа 2-дв.)</t>
-  </si>
-  <si>
-    <t>Тумба с вешалкой Уно-11 МСТ-УТВ-11-СБ-16  дуб сонома/белый</t>
-  </si>
-  <si>
-    <t>Кровать Mila КМ140М-06  140х200 см  белый глянцевый (06) (с ПМ)</t>
-  </si>
-  <si>
-    <t>Тумба Интро ИЖ.080.07.00.00.00  30х51х38 см  серый</t>
-  </si>
-  <si>
-    <t>Стол раздвижной Trip СРП-С-021  таксония медовая/чёрный муар</t>
-  </si>
-  <si>
-    <t>Стол обеденный Уно-9 МСТ-УCО-09-ЕО-16  бетон</t>
-  </si>
-  <si>
-    <t>Стул с подлокотниками EMERALD DC5006  зелёный/коричневый (FM-11)/чёрный</t>
+    <t>Тумба для обуви Уно-53 МСТ-УОД-53-ДС-16  дуб Сонома</t>
+  </si>
+  <si>
+    <t>Кресло детское FunDesk Mente Grey  серый</t>
   </si>
   <si>
     <t>Шкаф навесной Point Тип-21 71774436  дуб вотан</t>
   </si>
   <si>
-    <t>Барный стул Avalon AV 405  серый (Jaguar 09)/чёрный глянец</t>
-  </si>
-  <si>
-    <t>Шкаф обувной Дельта 7.4  бетон/белый</t>
-  </si>
-  <si>
-    <t>Ручка профильная Оскар РN(26) 03.00.320.348 (чм9) х  чёрный матовый</t>
-  </si>
-  <si>
-    <t>Журнальный стол 500 Лофт  дуб сонома</t>
+    <t>Тумба с двумя ящиками Тайлер ПМ-298.04.00.000  белый глянец</t>
+  </si>
+  <si>
+    <t>Подставка для обуви 3-полочная Женева 13 ПДО Ж13 Ч  чёрный</t>
+  </si>
+  <si>
+    <t>Обувница Уно-51 МСТ-УОД-51-БТ-16-1У  белый</t>
   </si>
   <si>
     <t>Журнальный стол 500 Лофт  ательер</t>
@@ -301,7 +256,7 @@
     <t>Журнальный стол 900 Лофт  дуб серый крафт</t>
   </si>
   <si>
-    <t>Журнальный стол 900 Лофт  дуб табачный крафт</t>
+    <t>Журнальный стол 550 Лофт  дуб серый крафт</t>
   </si>
   <si>
     <t>Приставной стол Лофт  дуб табачный крафт</t>
@@ -310,6 +265,12 @@
     <t>Приставной стол Лофт  ательер</t>
   </si>
   <si>
+    <t>Письменный стол Oslo 84 БН.103.84.00.000  бетон пайн светлый/чёрный</t>
+  </si>
+  <si>
+    <t>Стол India СРП-С-029  таксония медовая/муар чёрный</t>
+  </si>
+  <si>
     <t>Корпус шкафа 50 Оскар 388 БН.104.51.00.000  дуб сонома</t>
   </si>
   <si>
@@ -331,60 +292,48 @@
     <t>Журнальный стол Консул НМ 011.67 Х  венге магия</t>
   </si>
   <si>
-    <t>Журнальный стол Консул НМ 011.67 Х  ясень анкор тёмный (KR)</t>
-  </si>
-  <si>
-    <t>Стул Авиньон  серый (Pegaso Dark grey)/зеркальный хром</t>
+    <t>Тумба Лофт  венге</t>
   </si>
   <si>
     <t>Секция комбинированная с зеркалом и крючками Прованс ПМ-223.30.00.000 Исп. 3 ТД-223.08.03  дуб сонома трюфель/крем</t>
   </si>
   <si>
-    <t>Кресло Людвиг 047.1  бежевый (Velutto/Supreme 18)/коричневый (Поларис Браун)</t>
+    <t>Компьютерный стол с ящиком Брайтон  белый</t>
   </si>
   <si>
     <t>Комплект мебели Cubby Capri Pink  розовый/белый</t>
   </si>
   <si>
-    <t>Стул Concept  серый (В22)/белый</t>
-  </si>
-  <si>
     <t>Комод высокий SCANDICA Хортен  дуб натуральный светлый/бланж</t>
   </si>
   <si>
-    <t>Пуф-глайдер Р  светло-серый (Lunar ash)</t>
-  </si>
-  <si>
-    <t>Подставка для обуви Гранада 23 ПДО Г23С Б  белый/бежевый</t>
-  </si>
-  <si>
-    <t>Матрас Mimosa  90х200 см</t>
-  </si>
-  <si>
-    <t>Матрас Mimosa  160х200 см</t>
-  </si>
-  <si>
-    <t>Обувница Уно-54 МСТ-УОД-54-БТ-16-1У  белый</t>
-  </si>
-  <si>
-    <t>Стул Trast AV 435  серый (confetti blue stone)/чёрный глянец</t>
-  </si>
-  <si>
-    <t>Стул Ostin AV 408  коричневый (H71)/чёрный глянец</t>
-  </si>
-  <si>
-    <t>Стул Ostin AV 408  тёмно-серый (H15)/чёрный глянец</t>
-  </si>
-  <si>
-    <t>Тумба прикроватная Мила  серый (Balance 996)</t>
-  </si>
-  <si>
-    <t>Стол Тринити  бетон/чёрный</t>
+    <t>Подставка для обуви Гранада 13 ПДО Г13С Ч  чёрный/серый</t>
+  </si>
+  <si>
+    <t>Матрас Mimosa  140х200 см</t>
+  </si>
+  <si>
+    <t>Матрас Mimosa  80х190 см</t>
+  </si>
+  <si>
+    <t>Матрас Mimosa  120х200 см</t>
+  </si>
+  <si>
+    <t>Матрас Mimosa  80х200 см</t>
+  </si>
+  <si>
+    <t>Прикроватная тумба Сиена-2  дуб сонома/белый глянец (LW)</t>
+  </si>
+  <si>
+    <t>Кресло Admiral  кремовый (DO 122)/чёрный</t>
   </si>
   <si>
     <t>Приставной стол ЛОФТ НМ 68.03.00  венге</t>
   </si>
   <si>
+    <t>Приставной стол ЛОФТ НМ 68.03.00  дуб сонома</t>
+  </si>
+  <si>
     <t>Журнальный стол 550 ЛОФТ НМ 68.01.00  белый</t>
   </si>
   <si>
@@ -403,43 +352,43 @@
     <t>Журнальный стол 900 ЛОФТ НМ 68.02.00  дуб сонома</t>
   </si>
   <si>
-    <t>Журнальный стол Купер  белый поры дерева</t>
+    <t>Чехол на матрас Linen Way 53212  140х200 см</t>
+  </si>
+  <si>
+    <t>Полка навесная MYSTAR Сноули ИВ-121.08.00  белый</t>
+  </si>
+  <si>
+    <t>Тумба MYSTAR Сноули ИВ-121.02.00  белый</t>
+  </si>
+  <si>
+    <t>Шкаф для одежды MYSTAR Сноули 900.1 ИВ-121.10.00  белый</t>
+  </si>
+  <si>
+    <t>Шкаф для одежды MYSTAR Сноули 900.2 ИВ-121.11.00  белый</t>
   </si>
   <si>
     <t>Кровать Ультра  80(160)х200 см  белый</t>
   </si>
   <si>
-    <t>Тумба для ТВ Марсель 00-00105494  белый/белый глянец/венге</t>
-  </si>
-  <si>
-    <t>Полка навесная Марсель 00-00105492  белый/дуб венге</t>
-  </si>
-  <si>
-    <t>Пенал-витрина Марсель 00-0010549  белый/белый глянец/венге</t>
-  </si>
-  <si>
-    <t>Шкаф-витрина Марсель 00-00105498  белый/белый глянец/венге</t>
-  </si>
-  <si>
-    <t>Каркас кровати SCANDICA TELMA  160х200 см  капучино (Приорити 233)</t>
-  </si>
-  <si>
-    <t>Стул Атланта  коричневый (Hope 07)/чёрный</t>
+    <t>Компьютерный стол Парма  белый</t>
+  </si>
+  <si>
+    <t>Полка Bricks  дуб сонома</t>
+  </si>
+  <si>
+    <t>Стол регулируемый на колёсах BRABIX Лофт Smart CD-015 641886  чёрный/дуб сонома</t>
   </si>
   <si>
     <t>Дно кроватное  140х203 см  бежевый</t>
   </si>
   <si>
-    <t>Кресло офисное Люблин  белый (Pegaso milk)/светло-серый (Hope 09)/хром</t>
-  </si>
-  <si>
-    <t>Комплект опор Локи-2  4 шт.  чёрный</t>
-  </si>
-  <si>
-    <t>Стол Тринити  дуб крафт табачный/чёрный</t>
-  </si>
-  <si>
-    <t>Полубарный стул Амиго СРП-153  лиловый (Vegas 280)/чёрный матовый</t>
+    <t>Кресло офисное Люблин  коричневый (Pegaso chocolate)/(Hope 07)/хром</t>
+  </si>
+  <si>
+    <t>Прихожая Лофт  белый</t>
+  </si>
+  <si>
+    <t>Письменный стол VARBERG СПм-219  белый</t>
   </si>
   <si>
     <t>Дно кроватное  140х203 см  коричневый</t>
@@ -448,295 +397,211 @@
     <t>Дно кроватное  160х203 см  коричневый</t>
   </si>
   <si>
-    <t>Стол раздвижной Слайд тип 1  чёрный муар/дуб крафт золотой</t>
-  </si>
-  <si>
     <t>Шкаф-купе 2-дв. Регата-2  винтерберг/белый</t>
   </si>
   <si>
-    <t>Диван-кровать Комо 062.1  кофейный (Модерно 04)</t>
-  </si>
-  <si>
-    <t>Стол обеденный Форли  белый</t>
-  </si>
-  <si>
-    <t>Стул Рим  серый (Happy 996)/чёрный</t>
-  </si>
-  <si>
-    <t>Стул Рим  бежевый (Happy 233)/чёрный</t>
-  </si>
-  <si>
-    <t>Стол Бруно  белый</t>
+    <t>Чехол для матраса MILDEX Super B  180х200 см</t>
   </si>
   <si>
     <t>Кровать SOLANA Одри  140х200 см  серо-бежевый (Velutto 08)</t>
   </si>
   <si>
+    <t>Обувница КАН-5 S  белый</t>
+  </si>
+  <si>
     <t>Ручка-скоба Оскар FS-108 192 (чм) 2в х  чёрный матовый</t>
   </si>
   <si>
-    <t>Диван-кровать Камил П3МД  темно-серый (Vegas 965)/бежевый (Vegas 115)</t>
-  </si>
-  <si>
-    <t>Табурет Михаилъ Москвинъ 2  массив берёзы</t>
-  </si>
-  <si>
-    <t>Табурет 9040102000003  белый</t>
+    <t>Письменный стол с 2 дверьми и 2 ящиками MYSTAR Сноули ИВ-121.12.00  белый</t>
+  </si>
+  <si>
+    <t>Кровать MYSTAR Сноули 1200 ИВ-121.14.00  120x200 см  белый</t>
+  </si>
+  <si>
+    <t>Стол Уно-110 МСТ-УC1-10-БТ-16  белый</t>
+  </si>
+  <si>
+    <t>012_825-07-06-0</t>
+  </si>
+  <si>
+    <t>012_825-06-06-0</t>
+  </si>
+  <si>
+    <t>012_825-02-06-2</t>
+  </si>
+  <si>
+    <t>012_825-02-07-1</t>
+  </si>
+  <si>
+    <t>012_825-03-05-1</t>
+  </si>
+  <si>
+    <t>012_825-07-02-0</t>
+  </si>
+  <si>
+    <t>012_825-07-01-0</t>
+  </si>
+  <si>
+    <t>012_825-04-06-1</t>
+  </si>
+  <si>
+    <t>012_825-08-05-2</t>
+  </si>
+  <si>
+    <t>012_825-06-07-0</t>
+  </si>
+  <si>
+    <t>012_825-05-04-1</t>
+  </si>
+  <si>
+    <t>012_825-06-03-0</t>
+  </si>
+  <si>
+    <t>012_825-06-01-1</t>
+  </si>
+  <si>
+    <t>012_825-07-03-0</t>
+  </si>
+  <si>
+    <t>012_825-17-03-0</t>
+  </si>
+  <si>
+    <t>012_825-02-05-1</t>
+  </si>
+  <si>
+    <t>012_825-06-02-0</t>
+  </si>
+  <si>
+    <t>012_825-08-06-0</t>
+  </si>
+  <si>
+    <t>012_825-03-04-1</t>
+  </si>
+  <si>
+    <t>012_825-03-01-2</t>
+  </si>
+  <si>
+    <t>012_825-03-03-2</t>
+  </si>
+  <si>
+    <t>012_825-03-06-1</t>
+  </si>
+  <si>
+    <t>012_825-10-06-2</t>
+  </si>
+  <si>
+    <t>012_825-03-03-1</t>
+  </si>
+  <si>
+    <t>012_825-06-02-1</t>
+  </si>
+  <si>
+    <t>012_825-02-04-1</t>
+  </si>
+  <si>
+    <t>012_825-05-01-0</t>
+  </si>
+  <si>
+    <t>012_825-02-04-2</t>
+  </si>
+  <si>
+    <t>012_825-03-07-1</t>
+  </si>
+  <si>
+    <t>012_825-03-02-1</t>
+  </si>
+  <si>
+    <t>012_825-07-04-0</t>
+  </si>
+  <si>
+    <t>012_825-05-05-1</t>
   </si>
   <si>
     <t>012_825-03-01-1</t>
   </si>
   <si>
-    <t>012_825-07-06-0</t>
-  </si>
-  <si>
-    <t>012_825-05-04-2</t>
+    <t>012_825-05-02-1</t>
+  </si>
+  <si>
+    <t>012_825-08-07-1</t>
+  </si>
+  <si>
+    <t>012_825-03-04-0</t>
+  </si>
+  <si>
+    <t>012_825-05-01-1</t>
+  </si>
+  <si>
+    <t>012_825-03-07-0</t>
+  </si>
+  <si>
+    <t>012_825-05-06-1</t>
+  </si>
+  <si>
+    <t>012_825-08-07-0</t>
+  </si>
+  <si>
+    <t>012_825-02-01-2</t>
+  </si>
+  <si>
+    <t>012_825-04-07-1</t>
+  </si>
+  <si>
+    <t>012_825-03-05-2</t>
+  </si>
+  <si>
+    <t>012_825-02-06-1</t>
+  </si>
+  <si>
+    <t>012_825-13-01-1</t>
+  </si>
+  <si>
+    <t>012_825-02-06-0</t>
+  </si>
+  <si>
+    <t>012_825-02-03-1</t>
+  </si>
+  <si>
+    <t>012_825-02-01-1</t>
+  </si>
+  <si>
+    <t>012_825-02-04-0</t>
+  </si>
+  <si>
+    <t>012_825-02-05-2</t>
+  </si>
+  <si>
+    <t>012_825-02-03-2</t>
+  </si>
+  <si>
+    <t>012_825-13-03-1</t>
+  </si>
+  <si>
+    <t>012_825-02-02-1</t>
+  </si>
+  <si>
+    <t>012_825-04-04-2</t>
+  </si>
+  <si>
+    <t>012_825-03-02-2</t>
   </si>
   <si>
     <t>012_825-04-03-2</t>
   </si>
   <si>
-    <t>012_825-06-06-0</t>
-  </si>
-  <si>
-    <t>012_825-02-06-2</t>
-  </si>
-  <si>
-    <t>012_825-04-05-1</t>
-  </si>
-  <si>
-    <t>012_825-02-07-1</t>
-  </si>
-  <si>
-    <t>012_825-03-05-1</t>
-  </si>
-  <si>
-    <t>012_825-05-04-1</t>
-  </si>
-  <si>
-    <t>012_825-06-03-0</t>
-  </si>
-  <si>
-    <t>012_825-06-01-1</t>
-  </si>
-  <si>
-    <t>012_825-05-03-0</t>
-  </si>
-  <si>
-    <t>012_825-07-03-0</t>
-  </si>
-  <si>
-    <t>012_825-06-07-0</t>
-  </si>
-  <si>
-    <t>012_825-04-02-0</t>
-  </si>
-  <si>
-    <t>012_825-04-04-0</t>
-  </si>
-  <si>
-    <t>012_825-04-06-1</t>
-  </si>
-  <si>
-    <t>012_825-04-01-2</t>
-  </si>
-  <si>
-    <t>012_825-08-05-0</t>
-  </si>
-  <si>
-    <t>012_825-05-05-2</t>
-  </si>
-  <si>
-    <t>012_825-02-05-1</t>
-  </si>
-  <si>
-    <t>012_825-04-07-2</t>
-  </si>
-  <si>
-    <t>012_825-08-03-1</t>
-  </si>
-  <si>
-    <t>012_825-08-01-1</t>
-  </si>
-  <si>
-    <t>012_825-08-01-2</t>
-  </si>
-  <si>
-    <t>012_825-06-01-0</t>
-  </si>
-  <si>
-    <t>012_825-08-06-0</t>
-  </si>
-  <si>
-    <t>012_825-03-04-1</t>
-  </si>
-  <si>
-    <t>012_825-02-03-0</t>
-  </si>
-  <si>
-    <t>012_825-02-04-0</t>
-  </si>
-  <si>
-    <t>012_825-03-01-2</t>
-  </si>
-  <si>
-    <t>012_825-03-06-1</t>
-  </si>
-  <si>
-    <t>012_825-09-01-2</t>
-  </si>
-  <si>
-    <t>012_825-04-01-0</t>
-  </si>
-  <si>
-    <t>012_825-03-03-1</t>
-  </si>
-  <si>
-    <t>012_825-06-02-1</t>
-  </si>
-  <si>
-    <t>012_825-02-04-1</t>
-  </si>
-  <si>
-    <t>012_825-02-04-2</t>
-  </si>
-  <si>
-    <t>012_825-03-07-1</t>
-  </si>
-  <si>
-    <t>012_825-03-07-2</t>
-  </si>
-  <si>
-    <t>012_825-03-02-1</t>
-  </si>
-  <si>
-    <t>012_825-02-03-2</t>
-  </si>
-  <si>
-    <t>012_825-05-05-1</t>
-  </si>
-  <si>
-    <t>012_825-07-02-0</t>
-  </si>
-  <si>
-    <t>012_825-02-06-1</t>
+    <t>012_825-10-05-1</t>
   </si>
   <si>
     <t>012_825-02-07-2</t>
   </si>
   <si>
-    <t>012_825-05-01-1</t>
-  </si>
-  <si>
-    <t>012_825-04-03-1</t>
-  </si>
-  <si>
-    <t>012_825-08-02-1</t>
-  </si>
-  <si>
-    <t>012_825-05-06-1</t>
-  </si>
-  <si>
-    <t>012_825-08-07-0</t>
-  </si>
-  <si>
-    <t>012_825-04-02-1</t>
-  </si>
-  <si>
-    <t>012_825-02-01-2</t>
-  </si>
-  <si>
-    <t>012_825-02-02-1</t>
-  </si>
-  <si>
-    <t>012_825-07-01-0</t>
-  </si>
-  <si>
-    <t>012_825-08-06-1</t>
-  </si>
-  <si>
-    <t>012_825-05-03-2</t>
-  </si>
-  <si>
-    <t>012_825-02-03-1</t>
-  </si>
-  <si>
-    <t>012_825-02-05-2</t>
-  </si>
-  <si>
-    <t>012_825-13-01-1</t>
+    <t>012_825-06-01-2</t>
   </si>
   <si>
     <t>012_825-05-03-1</t>
   </si>
   <si>
-    <t>012_825-02-01-1</t>
-  </si>
-  <si>
-    <t>012_825-09-04-0</t>
-  </si>
-  <si>
-    <t>012_825-11-08-0</t>
-  </si>
-  <si>
-    <t>012_825-04-04-2</t>
-  </si>
-  <si>
-    <t>012_825-13-06-1</t>
-  </si>
-  <si>
-    <t>012_825-03-02-2</t>
-  </si>
-  <si>
-    <t>012_825-02-06-0</t>
-  </si>
-  <si>
-    <t>012_825-03-04-2</t>
-  </si>
-  <si>
-    <t>012_825-08-05-1</t>
-  </si>
-  <si>
-    <t>012_825-05-01-2</t>
-  </si>
-  <si>
-    <t>012_825-08-03-0</t>
-  </si>
-  <si>
-    <t>012_825-15-07-0</t>
-  </si>
-  <si>
-    <t>012_825-02-05-0</t>
-  </si>
-  <si>
-    <t>012_825-03-04-0</t>
-  </si>
-  <si>
-    <t>012_825-03-05-0</t>
-  </si>
-  <si>
-    <t>012_825-07-04-0</t>
-  </si>
-  <si>
-    <t>012_825-08-07-1</t>
-  </si>
-  <si>
-    <t>012_825-03-01-0</t>
-  </si>
-  <si>
-    <t>012_825-03-06-0</t>
-  </si>
-  <si>
-    <t>012_825-08-04-2</t>
-  </si>
-  <si>
-    <t>012_825-09-03-2</t>
-  </si>
-  <si>
-    <t>012_825-05-07-0</t>
-  </si>
-  <si>
-    <t>012_825-08-06-2</t>
+    <t>012_825-10-05-2</t>
   </si>
 </sst>
 </file>
@@ -1097,15 +962,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="5" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1124,13 +988,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>10574996</v>
+        <v>80269494</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1138,13 +1002,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>10575027</v>
+        <v>80273480</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1152,41 +1016,41 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>10575027</v>
+        <v>80275388</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>10575035</v>
+        <v>80277312</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>80269494</v>
+        <v>80277312</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1194,41 +1058,41 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>80269939</v>
+        <v>80277389</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>80269947</v>
+        <v>80277389</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>80273480</v>
+        <v>80286328</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1236,41 +1100,41 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>80275388</v>
+        <v>80286328</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>80276426</v>
+        <v>80287395</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>80277312</v>
+        <v>80287396</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1278,13 +1142,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>80277312</v>
+        <v>80287396</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -1292,13 +1156,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>80287395</v>
+        <v>80287397</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1306,13 +1170,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>80287396</v>
+        <v>80289278</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -1320,27 +1184,27 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>80287397</v>
+        <v>80289932</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>80289278</v>
+        <v>80291768</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -1348,41 +1212,41 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>80289932</v>
+        <v>80296363</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>80291768</v>
+        <v>80296367</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>80293144</v>
+        <v>80296404</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1390,13 +1254,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>80296363</v>
+        <v>80296917</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1404,27 +1268,27 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>80296367</v>
+        <v>80298476</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>80296404</v>
+        <v>80302078</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1432,27 +1296,27 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>80297354</v>
+        <v>80302790</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>80297354</v>
+        <v>80316769</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -1460,125 +1324,125 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>80297354</v>
+        <v>80316774</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>80297359</v>
+        <v>80319066</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>80297374</v>
+        <v>80319066</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>80297374</v>
+        <v>80323643</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D29" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>80298476</v>
+        <v>80323647</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="D30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>80298661</v>
+        <v>80323647</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D31" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>80298661</v>
+        <v>80323653</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>80298661</v>
+        <v>80325705</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>80302790</v>
+        <v>80326808</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -1586,55 +1450,55 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>80307836</v>
+        <v>80328720</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>80316759</v>
+        <v>80330337</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>80316769</v>
+        <v>80334971</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>80316774</v>
+        <v>80334973</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -1642,13 +1506,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>80319066</v>
+        <v>80334973</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -1656,27 +1520,27 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>80319066</v>
+        <v>80335181</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D40" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>80321489</v>
+        <v>80335181</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -1684,55 +1548,55 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>80321489</v>
+        <v>80335196</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D42" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>80322559</v>
+        <v>80336886</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D43" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>80323643</v>
+        <v>80337231</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="D44" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>80323653</v>
+        <v>80337233</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -1740,27 +1604,27 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>80326808</v>
+        <v>80337235</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="D46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>80327500</v>
+        <v>80337236</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D47" s="2">
         <v>2</v>
@@ -1768,27 +1632,27 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>80327778</v>
+        <v>80337768</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="D48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>80327778</v>
+        <v>80337780</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
@@ -1796,13 +1660,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>80334971</v>
+        <v>80338157</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -1810,13 +1674,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>80334973</v>
+        <v>80340721</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -1824,55 +1688,55 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>80334973</v>
+        <v>80340975</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D52" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>80335181</v>
+        <v>80341058</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="D53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>80335196</v>
+        <v>80341058</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="D54" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>80336886</v>
+        <v>80341553</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -1880,27 +1744,27 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>80337231</v>
+        <v>80344326</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>80337233</v>
+        <v>80344331</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -1908,41 +1772,41 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>80337235</v>
+        <v>80345415</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>80337236</v>
+        <v>80345973</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D59" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>80337546</v>
+        <v>80346761</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
@@ -1950,27 +1814,27 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>80337768</v>
+        <v>80346761</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="D61" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>80340719</v>
+        <v>80346761</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
@@ -1978,13 +1842,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>80340721</v>
+        <v>80348907</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
@@ -1992,13 +1856,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>80341058</v>
+        <v>80349613</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
@@ -2006,27 +1870,27 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>80341058</v>
+        <v>80349649</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="D65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>80341553</v>
+        <v>80349927</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
@@ -2034,13 +1898,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>80341568</v>
+        <v>80349927</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
@@ -2048,27 +1912,27 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>80343756</v>
+        <v>80349928</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>80344326</v>
+        <v>80350081</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
@@ -2076,55 +1940,55 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>80344331</v>
+        <v>80350081</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>80345973</v>
+        <v>80353167</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="D71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>80346761</v>
+        <v>80356136</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D72" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>80349649</v>
+        <v>80358767</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="D73" s="2">
         <v>1</v>
@@ -2132,13 +1996,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>80349927</v>
+        <v>80362815</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="D74" s="2">
         <v>1</v>
@@ -2146,13 +2010,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>80353186</v>
+        <v>80363145</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
@@ -2160,13 +2024,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>80356136</v>
+        <v>80367014</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
@@ -2174,13 +2038,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>80358767</v>
+        <v>80367018</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
@@ -2188,13 +2052,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>80359059</v>
+        <v>80367020</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="D78" s="2">
         <v>2</v>
@@ -2202,27 +2066,27 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>80360841</v>
+        <v>80368405</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D79" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>80361054</v>
+        <v>80373841</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -2230,41 +2094,41 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>80361056</v>
+        <v>80375717</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D81" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>80361791</v>
+        <v>80380673</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D82" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>80363145</v>
+        <v>80387458</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="D83" s="2">
         <v>1</v>
@@ -2272,13 +2136,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>80367014</v>
+        <v>80402308</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -2286,13 +2150,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>80367018</v>
+        <v>80402308</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D85" s="2">
         <v>1</v>
@@ -2300,41 +2164,41 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>80367020</v>
+        <v>80412775</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>80372441</v>
+        <v>80419749</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="D87" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>80373841</v>
+        <v>80422253</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D88" s="2">
         <v>1</v>
@@ -2342,41 +2206,41 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>80375465</v>
+        <v>80422799</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D89" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>80375465</v>
+        <v>80422799</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D90" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>80375717</v>
+        <v>80428730</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
@@ -2384,13 +2248,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>80378879</v>
+        <v>80428730</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
@@ -2398,27 +2262,27 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>80380673</v>
+        <v>80428791</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="D93" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>80381539</v>
+        <v>80428791</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
@@ -2426,13 +2290,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>80384824</v>
+        <v>80428794</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="D95" s="2">
         <v>2</v>
@@ -2440,13 +2304,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>80385236</v>
+        <v>80428806</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="D96" s="2">
         <v>1</v>
@@ -2454,55 +2318,55 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>80393213</v>
+        <v>80428806</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="D97" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>80397349</v>
+        <v>80428807</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="D98" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>80402272</v>
+        <v>80431236</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D99" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>80406151</v>
+        <v>80431279</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
@@ -2510,13 +2374,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>80412775</v>
+        <v>80431281</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D101" s="2">
         <v>1</v>
@@ -2524,55 +2388,55 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>80422181</v>
+        <v>80431284</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="D102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>80422955</v>
+        <v>80431289</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D103" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>80428189</v>
+        <v>80431290</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="D104" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>80428727</v>
+        <v>80431293</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D105" s="2">
         <v>1</v>
@@ -2580,13 +2444,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>80428730</v>
+        <v>80436183</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="D106" s="2">
         <v>1</v>
@@ -2594,13 +2458,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>80428730</v>
+        <v>80437016</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="D107" s="2">
         <v>1</v>
@@ -2608,41 +2472,41 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>80428791</v>
+        <v>80437016</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="D108" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>80428791</v>
+        <v>80437016</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D109" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>80428792</v>
+        <v>80442029</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D110" s="2">
         <v>1</v>
@@ -2650,41 +2514,41 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>80428806</v>
+        <v>80442874</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="D111" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>80428807</v>
+        <v>80442906</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D112" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>80431281</v>
+        <v>80443811</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D113" s="2">
         <v>1</v>
@@ -2692,83 +2556,83 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>80431284</v>
+        <v>80452184</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D114" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>80431289</v>
+        <v>80452237</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="D115" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>80431290</v>
+        <v>80452309</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="D116" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>80431293</v>
+        <v>80452313</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D117" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>80436183</v>
+        <v>80452315</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="D118" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>80437016</v>
+        <v>80452317</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="D119" s="2">
         <v>1</v>
@@ -2776,27 +2640,27 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>80437019</v>
+        <v>80452317</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="D120" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>80441418</v>
+        <v>80500739</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D121" s="2">
         <v>2</v>
@@ -2804,41 +2668,41 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>80441418</v>
+        <v>80508490</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="D122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>80442874</v>
+        <v>80510783</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="D123" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>80443607</v>
+        <v>80510783</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="D124" s="2">
         <v>1</v>
@@ -2846,13 +2710,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>80443811</v>
+        <v>80510784</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="D125" s="2">
         <v>1</v>
@@ -2860,69 +2724,69 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>80449150</v>
+        <v>80510784</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="D126" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>80449150</v>
+        <v>80510785</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D127" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>80452184</v>
+        <v>80510786</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D128" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>80452234</v>
+        <v>80510786</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D129" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>80452238</v>
+        <v>80510787</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="D130" s="2">
         <v>1</v>
@@ -2930,41 +2794,41 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>80452308</v>
+        <v>80510787</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="D131" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>80452308</v>
+        <v>80510788</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="D132" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>80452316</v>
+        <v>80510789</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D133" s="2">
         <v>4</v>
@@ -2972,83 +2836,83 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>80454852</v>
+        <v>80510789</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="D134" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>80454852</v>
+        <v>80510790</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="D135" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>80500298</v>
+        <v>80510790</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="D136" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>80501474</v>
+        <v>80512043</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D137" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>80501474</v>
+        <v>80512791</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D138" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>80501477</v>
+        <v>80512794</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="D139" s="2">
         <v>1</v>
@@ -3056,13 +2920,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>80501477</v>
+        <v>80512796</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="D140" s="2">
         <v>1</v>
@@ -3070,27 +2934,27 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>80501477</v>
+        <v>80512797</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="D141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>80503519</v>
+        <v>80514581</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="D142" s="2">
         <v>1</v>
@@ -3098,27 +2962,27 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>80505176</v>
+        <v>80517068</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="D143" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>80510783</v>
+        <v>80517274</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="D144" s="2">
         <v>1</v>
@@ -3126,13 +2990,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>80510783</v>
+        <v>80520289</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D145" s="2">
         <v>1</v>
@@ -3140,13 +3004,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>80510783</v>
+        <v>80521269</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="D146" s="2">
         <v>1</v>
@@ -3154,13 +3018,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>80510785</v>
+        <v>80521289</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D147" s="2">
         <v>2</v>
@@ -3168,83 +3032,83 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>80510785</v>
+        <v>80522324</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="D148" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>80510786</v>
+        <v>80524205</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D149" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>80510786</v>
+        <v>80524804</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="D150" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>80510787</v>
+        <v>80524805</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="D151" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>80510788</v>
+        <v>80524805</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="D152" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>80510788</v>
+        <v>80526124</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D153" s="2">
         <v>1</v>
@@ -3252,27 +3116,27 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>80510789</v>
+        <v>80528174</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D154" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>80510789</v>
+        <v>80531371</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="D155" s="2">
         <v>1</v>
@@ -3280,492 +3144,72 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>80510789</v>
+        <v>80536590</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="D156" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>80510790</v>
+        <v>80536920</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D157" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>80510790</v>
+        <v>80539094</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="D158" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>80512383</v>
+        <v>80539095</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="D159" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>80514581</v>
+        <v>80542552</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="D160" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
-        <v>80515344</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D161" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
-        <v>80515353</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D162" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
-        <v>80515355</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D163" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
-        <v>80515356</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D164" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
-        <v>80520408</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D165" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
-        <v>80521074</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D166" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
-        <v>80521269</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D167" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
-        <v>80521288</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D168" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
-        <v>80521288</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D169" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
-        <v>80522690</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D170" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
-        <v>80523016</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D171" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
-        <v>80523293</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D172" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
-        <v>80524804</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D173" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
-        <v>80524805</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D174" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
-        <v>80525147</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D175" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
-        <v>80526124</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D176" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
-        <v>80529952</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D177" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
-        <v>80529980</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D178" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
-        <v>80531343</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D179" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
-        <v>80531343</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D180" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
-        <v>80531344</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D181" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
-        <v>80531344</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D182" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
-        <v>80531347</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D183" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
-        <v>80531347</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D184" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
-        <v>80531371</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D185" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
-        <v>80536920</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D186" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
-        <v>80538143</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D187" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
-        <v>80538884</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D188" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
-        <v>80539385</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D189" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
-        <v>80539385</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D190" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
